--- a/Base de dados/d_unidade.xlsx
+++ b/Base de dados/d_unidade.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BE2575-44BE-4365-BC15-DA34A55F42F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11997FD9-061C-44FE-9BFC-AE4D2CC9331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19635" windowWidth="28800" windowHeight="11295" xr2:uid="{AACF9EDE-F5C7-4E7C-BF9B-395231BEF08B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{AACF9EDE-F5C7-4E7C-BF9B-395231BEF08B}"/>
   </bookViews>
   <sheets>
     <sheet name="d_unidade" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cidades" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">d_unidade!$A$1:$C$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$A$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="598">
   <si>
     <t>CENTRO DE INOVACAO SAUDE E SEG. TRABALHO</t>
   </si>
@@ -1581,6 +1584,258 @@
   </si>
   <si>
     <t>ano_orcamento</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Municípios</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Agua Clara</t>
+  </si>
+  <si>
+    <t>Alcinopolis</t>
+  </si>
+  <si>
+    <t>Amambai</t>
+  </si>
+  <si>
+    <t>Anastacio</t>
+  </si>
+  <si>
+    <t>Anaurilandia</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Antonio Joao</t>
+  </si>
+  <si>
+    <t>Aparecida do Taboado</t>
+  </si>
+  <si>
+    <t>Aquidauana</t>
+  </si>
+  <si>
+    <t>Aral Moreira</t>
+  </si>
+  <si>
+    <t>Bandeirantes</t>
+  </si>
+  <si>
+    <t>Bataguassu</t>
+  </si>
+  <si>
+    <t>Bataypora</t>
+  </si>
+  <si>
+    <t>Bela Vista</t>
+  </si>
+  <si>
+    <t>Bodoquena</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>Brasilandia</t>
+  </si>
+  <si>
+    <t>Caarapo</t>
+  </si>
+  <si>
+    <t>Camapua</t>
+  </si>
+  <si>
+    <t>Campo Grande</t>
+  </si>
+  <si>
+    <t>Caracol</t>
+  </si>
+  <si>
+    <t>Cassilandia</t>
+  </si>
+  <si>
+    <t>Chapadao do Sul</t>
+  </si>
+  <si>
+    <t>Corguinho</t>
+  </si>
+  <si>
+    <t>Coronel Sapucaia</t>
+  </si>
+  <si>
+    <t>Corumba</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Coxim</t>
+  </si>
+  <si>
+    <t>Deodapolis</t>
+  </si>
+  <si>
+    <t>Dois Irmaos do Buriti</t>
+  </si>
+  <si>
+    <t>Douradina</t>
+  </si>
+  <si>
+    <t>Dourados</t>
+  </si>
+  <si>
+    <t>Eldorado</t>
+  </si>
+  <si>
+    <t>Fatima do Sul</t>
+  </si>
+  <si>
+    <t>Figueirao</t>
+  </si>
+  <si>
+    <t>Gloria de Dourados</t>
+  </si>
+  <si>
+    <t>Guia Lopes da Laguna</t>
+  </si>
+  <si>
+    <t>Iguatemi</t>
+  </si>
+  <si>
+    <t>Inocencia</t>
+  </si>
+  <si>
+    <t>Itapora</t>
+  </si>
+  <si>
+    <t>Itaquirai</t>
+  </si>
+  <si>
+    <t>Ivinhema</t>
+  </si>
+  <si>
+    <t>Japora</t>
+  </si>
+  <si>
+    <t>Jaraguari</t>
+  </si>
+  <si>
+    <t>Jardim</t>
+  </si>
+  <si>
+    <t>Jatei</t>
+  </si>
+  <si>
+    <t>Juti</t>
+  </si>
+  <si>
+    <t>Ladario</t>
+  </si>
+  <si>
+    <t>Laguna Carapa</t>
+  </si>
+  <si>
+    <t>Maracaju</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Mundo Novo</t>
+  </si>
+  <si>
+    <t>Navirai</t>
+  </si>
+  <si>
+    <t>Nioaque</t>
+  </si>
+  <si>
+    <t>Nova Alvorada do Sul</t>
+  </si>
+  <si>
+    <t>Nova Andradina</t>
+  </si>
+  <si>
+    <t>Novo Horizonte do Sul</t>
+  </si>
+  <si>
+    <t>Paraiso das Aguas</t>
+  </si>
+  <si>
+    <t>Paranaiba</t>
+  </si>
+  <si>
+    <t>Paranhos</t>
+  </si>
+  <si>
+    <t>Pedro Gomes</t>
+  </si>
+  <si>
+    <t>Ponta Pora</t>
+  </si>
+  <si>
+    <t>Porto Murtinho</t>
+  </si>
+  <si>
+    <t>Ribas do Rio Pardo</t>
+  </si>
+  <si>
+    <t>Rio Brilhante</t>
+  </si>
+  <si>
+    <t>Rio Negro</t>
+  </si>
+  <si>
+    <t>Rio Verde de Mato Grosso</t>
+  </si>
+  <si>
+    <t>Rochedo</t>
+  </si>
+  <si>
+    <t>Santa Rita do Pardo</t>
+  </si>
+  <si>
+    <t>Sao Gabriel do Oeste</t>
+  </si>
+  <si>
+    <t>Selviria</t>
+  </si>
+  <si>
+    <t>Sete Quedas</t>
+  </si>
+  <si>
+    <t>Sidrolandia</t>
+  </si>
+  <si>
+    <t>Sonora</t>
+  </si>
+  <si>
+    <t>Tacuru</t>
+  </si>
+  <si>
+    <t>Taquarussu</t>
+  </si>
+  <si>
+    <t>Terenos</t>
+  </si>
+  <si>
+    <t>Tres Lagoas</t>
+  </si>
+  <si>
+    <t>Vicentina</t>
+  </si>
+  <si>
+    <t>cod_ibge</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1884,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1640,6 +1902,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88318B0D-C4D5-4607-92EB-9405FB841B92}" name="CidadesBrasil" displayName="CidadesBrasil" ref="A1:C80" totalsRowShown="0">
+  <autoFilter ref="A1:C80" xr:uid="{1724F570-51F5-4718-B386-1814CC860321}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{56E0E9FE-BC20-4AC9-93C4-DBA39508E723}" name="UF" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6578774F-DC41-4C21-85D2-61E4F1E11CDB}" name="Municípios" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4D8B0C5D-A3D8-4E60-BA23-74092D7100E8}" name="Código"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1939,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780FCAEF-1130-4B16-9FE9-6454A7E613CD}">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +2226,7 @@
     <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>513</v>
       </c>
@@ -1962,8 +2236,11 @@
       <c r="C1" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -1973,8 +2250,11 @@
       <c r="C2" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -1984,8 +2264,11 @@
       <c r="C3" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -1995,8 +2278,11 @@
       <c r="C4" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -2006,8 +2292,11 @@
       <c r="C5" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -2017,8 +2306,11 @@
       <c r="C6" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -2028,8 +2320,11 @@
       <c r="C7" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -2039,8 +2334,11 @@
       <c r="C8" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -2050,8 +2348,11 @@
       <c r="C9" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -2061,8 +2362,11 @@
       <c r="C10" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -2072,8 +2376,11 @@
       <c r="C11" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -2083,8 +2390,11 @@
       <c r="C12" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -2094,8 +2404,11 @@
       <c r="C13" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
@@ -2105,8 +2418,11 @@
       <c r="C14" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2020</v>
       </c>
@@ -2116,8 +2432,11 @@
       <c r="C15" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -2127,8 +2446,11 @@
       <c r="C16" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2020</v>
       </c>
@@ -2138,8 +2460,11 @@
       <c r="C17" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2020</v>
       </c>
@@ -2149,8 +2474,11 @@
       <c r="C18" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2020</v>
       </c>
@@ -2160,8 +2488,11 @@
       <c r="C19" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -2171,8 +2502,11 @@
       <c r="C20" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -2182,8 +2516,11 @@
       <c r="C21" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -2193,8 +2530,11 @@
       <c r="C22" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2020</v>
       </c>
@@ -2204,8 +2544,11 @@
       <c r="C23" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
@@ -2215,8 +2558,11 @@
       <c r="C24" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -2226,8 +2572,11 @@
       <c r="C25" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2020</v>
       </c>
@@ -2237,8 +2586,11 @@
       <c r="C26" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2020</v>
       </c>
@@ -2248,8 +2600,11 @@
       <c r="C27" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2020</v>
       </c>
@@ -2259,8 +2614,11 @@
       <c r="C28" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2020</v>
       </c>
@@ -2270,8 +2628,11 @@
       <c r="C29" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -2281,8 +2642,11 @@
       <c r="C30" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -2292,8 +2656,11 @@
       <c r="C31" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
@@ -2303,8 +2670,11 @@
       <c r="C32" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2020</v>
       </c>
@@ -2314,8 +2684,11 @@
       <c r="C33" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2021</v>
       </c>
@@ -2325,8 +2698,11 @@
       <c r="C34" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2021</v>
       </c>
@@ -2336,8 +2712,11 @@
       <c r="C35" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2021</v>
       </c>
@@ -2347,8 +2726,11 @@
       <c r="C36" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2021</v>
       </c>
@@ -2358,8 +2740,11 @@
       <c r="C37" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2021</v>
       </c>
@@ -2369,8 +2754,11 @@
       <c r="C38" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2021</v>
       </c>
@@ -2380,8 +2768,11 @@
       <c r="C39" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2021</v>
       </c>
@@ -2391,8 +2782,11 @@
       <c r="C40" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2021</v>
       </c>
@@ -2402,8 +2796,11 @@
       <c r="C41" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2021</v>
       </c>
@@ -2413,8 +2810,11 @@
       <c r="C42" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2021</v>
       </c>
@@ -2424,8 +2824,11 @@
       <c r="C43" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2021</v>
       </c>
@@ -2435,8 +2838,11 @@
       <c r="C44" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2021</v>
       </c>
@@ -2446,8 +2852,11 @@
       <c r="C45" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2021</v>
       </c>
@@ -2457,8 +2866,11 @@
       <c r="C46" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2021</v>
       </c>
@@ -2468,8 +2880,11 @@
       <c r="C47" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2021</v>
       </c>
@@ -2479,8 +2894,11 @@
       <c r="C48" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2021</v>
       </c>
@@ -2490,8 +2908,11 @@
       <c r="C49" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2021</v>
       </c>
@@ -2501,8 +2922,11 @@
       <c r="C50" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2021</v>
       </c>
@@ -2512,8 +2936,11 @@
       <c r="C51" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2021</v>
       </c>
@@ -2523,8 +2950,11 @@
       <c r="C52" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2021</v>
       </c>
@@ -2534,8 +2964,11 @@
       <c r="C53" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2021</v>
       </c>
@@ -2545,8 +2978,11 @@
       <c r="C54" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2021</v>
       </c>
@@ -2556,8 +2992,11 @@
       <c r="C55" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2021</v>
       </c>
@@ -2567,8 +3006,11 @@
       <c r="C56" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -2578,8 +3020,11 @@
       <c r="C57" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2021</v>
       </c>
@@ -2589,8 +3034,11 @@
       <c r="C58" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2021</v>
       </c>
@@ -2600,8 +3048,11 @@
       <c r="C59" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2021</v>
       </c>
@@ -2611,8 +3062,11 @@
       <c r="C60" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2021</v>
       </c>
@@ -2622,8 +3076,11 @@
       <c r="C61" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2021</v>
       </c>
@@ -2633,8 +3090,11 @@
       <c r="C62" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2021</v>
       </c>
@@ -2644,8 +3104,11 @@
       <c r="C63" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2021</v>
       </c>
@@ -2655,8 +3118,11 @@
       <c r="C64" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2021</v>
       </c>
@@ -2666,8 +3132,11 @@
       <c r="C65" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2018</v>
       </c>
@@ -2677,8 +3146,11 @@
       <c r="C66" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2018</v>
       </c>
@@ -2688,8 +3160,11 @@
       <c r="C67" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
@@ -2699,8 +3174,11 @@
       <c r="C68" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2018</v>
       </c>
@@ -2710,8 +3188,11 @@
       <c r="C69" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2018</v>
       </c>
@@ -2721,8 +3202,11 @@
       <c r="C70" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2018</v>
       </c>
@@ -2732,8 +3216,11 @@
       <c r="C71" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2018</v>
       </c>
@@ -2743,8 +3230,11 @@
       <c r="C72" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2018</v>
       </c>
@@ -2754,8 +3244,11 @@
       <c r="C73" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2018</v>
       </c>
@@ -2765,8 +3258,11 @@
       <c r="C74" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2018</v>
       </c>
@@ -2776,8 +3272,11 @@
       <c r="C75" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2018</v>
       </c>
@@ -2787,8 +3286,11 @@
       <c r="C76" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2018</v>
       </c>
@@ -2798,8 +3300,11 @@
       <c r="C77" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2018</v>
       </c>
@@ -2809,8 +3314,11 @@
       <c r="C78" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2018</v>
       </c>
@@ -2820,8 +3328,11 @@
       <c r="C79" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2018</v>
       </c>
@@ -2831,8 +3342,11 @@
       <c r="C80" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2018</v>
       </c>
@@ -2842,8 +3356,11 @@
       <c r="C81" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2018</v>
       </c>
@@ -2853,8 +3370,11 @@
       <c r="C82" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2018</v>
       </c>
@@ -2864,8 +3384,11 @@
       <c r="C83" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2018</v>
       </c>
@@ -2875,8 +3398,11 @@
       <c r="C84" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2018</v>
       </c>
@@ -2886,8 +3412,11 @@
       <c r="C85" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2018</v>
       </c>
@@ -2897,8 +3426,11 @@
       <c r="C86" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2018</v>
       </c>
@@ -2908,8 +3440,11 @@
       <c r="C87" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2018</v>
       </c>
@@ -2919,8 +3454,11 @@
       <c r="C88" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2018</v>
       </c>
@@ -2930,8 +3468,11 @@
       <c r="C89" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2018</v>
       </c>
@@ -2941,8 +3482,11 @@
       <c r="C90" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2018</v>
       </c>
@@ -2952,8 +3496,11 @@
       <c r="C91" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2018</v>
       </c>
@@ -2963,8 +3510,11 @@
       <c r="C92" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2018</v>
       </c>
@@ -2974,8 +3524,11 @@
       <c r="C93" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2018</v>
       </c>
@@ -2985,8 +3538,11 @@
       <c r="C94" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2018</v>
       </c>
@@ -2996,8 +3552,11 @@
       <c r="C95" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2018</v>
       </c>
@@ -3007,8 +3566,11 @@
       <c r="C96" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2019</v>
       </c>
@@ -3018,8 +3580,11 @@
       <c r="C97" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2019</v>
       </c>
@@ -3029,8 +3594,11 @@
       <c r="C98" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2019</v>
       </c>
@@ -3040,8 +3608,11 @@
       <c r="C99" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2019</v>
       </c>
@@ -3051,8 +3622,11 @@
       <c r="C100" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2019</v>
       </c>
@@ -3062,8 +3636,11 @@
       <c r="C101" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2019</v>
       </c>
@@ -3073,8 +3650,11 @@
       <c r="C102" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2019</v>
       </c>
@@ -3084,8 +3664,11 @@
       <c r="C103" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2019</v>
       </c>
@@ -3095,8 +3678,11 @@
       <c r="C104" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2019</v>
       </c>
@@ -3106,8 +3692,11 @@
       <c r="C105" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2019</v>
       </c>
@@ -3117,8 +3706,11 @@
       <c r="C106" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2019</v>
       </c>
@@ -3128,8 +3720,11 @@
       <c r="C107" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2019</v>
       </c>
@@ -3139,8 +3734,11 @@
       <c r="C108" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2019</v>
       </c>
@@ -3150,8 +3748,11 @@
       <c r="C109" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2019</v>
       </c>
@@ -3161,8 +3762,11 @@
       <c r="C110" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2019</v>
       </c>
@@ -3172,8 +3776,11 @@
       <c r="C111" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2019</v>
       </c>
@@ -3183,8 +3790,11 @@
       <c r="C112" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2019</v>
       </c>
@@ -3194,8 +3804,11 @@
       <c r="C113" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2019</v>
       </c>
@@ -3205,8 +3818,11 @@
       <c r="C114" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2019</v>
       </c>
@@ -3216,8 +3832,11 @@
       <c r="C115" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2019</v>
       </c>
@@ -3227,8 +3846,11 @@
       <c r="C116" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2019</v>
       </c>
@@ -3238,8 +3860,11 @@
       <c r="C117" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2019</v>
       </c>
@@ -3249,8 +3874,11 @@
       <c r="C118" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2019</v>
       </c>
@@ -3260,8 +3888,11 @@
       <c r="C119" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2019</v>
       </c>
@@ -3271,8 +3902,11 @@
       <c r="C120" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
@@ -3282,8 +3916,11 @@
       <c r="C121" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2019</v>
       </c>
@@ -3293,8 +3930,11 @@
       <c r="C122" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2019</v>
       </c>
@@ -3304,8 +3944,11 @@
       <c r="C123" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2019</v>
       </c>
@@ -3315,8 +3958,11 @@
       <c r="C124" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2019</v>
       </c>
@@ -3326,8 +3972,11 @@
       <c r="C125" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2019</v>
       </c>
@@ -3337,8 +3986,11 @@
       <c r="C126" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2019</v>
       </c>
@@ -3348,8 +4000,11 @@
       <c r="C127" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
@@ -3359,8 +4014,11 @@
       <c r="C128" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2017</v>
       </c>
@@ -3370,8 +4028,11 @@
       <c r="C129" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2017</v>
       </c>
@@ -3381,8 +4042,11 @@
       <c r="C130" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2017</v>
       </c>
@@ -3392,8 +4056,11 @@
       <c r="C131" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2017</v>
       </c>
@@ -3403,8 +4070,11 @@
       <c r="C132" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
@@ -3414,8 +4084,11 @@
       <c r="C133" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2017</v>
       </c>
@@ -3425,8 +4098,11 @@
       <c r="C134" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2017</v>
       </c>
@@ -3436,8 +4112,11 @@
       <c r="C135" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2017</v>
       </c>
@@ -3447,8 +4126,11 @@
       <c r="C136" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2017</v>
       </c>
@@ -3458,8 +4140,11 @@
       <c r="C137" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
@@ -3469,8 +4154,11 @@
       <c r="C138" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -3480,8 +4168,11 @@
       <c r="C139" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -3491,8 +4182,11 @@
       <c r="C140" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
@@ -3502,8 +4196,11 @@
       <c r="C141" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -3513,8 +4210,11 @@
       <c r="C142" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -3524,8 +4224,11 @@
       <c r="C143" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -3535,8 +4238,11 @@
       <c r="C144" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -3546,8 +4252,11 @@
       <c r="C145" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2017</v>
       </c>
@@ -3557,8 +4266,11 @@
       <c r="C146" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2017</v>
       </c>
@@ -3568,8 +4280,11 @@
       <c r="C147" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2017</v>
       </c>
@@ -3579,8 +4294,11 @@
       <c r="C148" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2018</v>
       </c>
@@ -3590,8 +4308,11 @@
       <c r="C149" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2018</v>
       </c>
@@ -3601,8 +4322,11 @@
       <c r="C150" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2018</v>
       </c>
@@ -3612,8 +4336,11 @@
       <c r="C151" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2018</v>
       </c>
@@ -3623,8 +4350,11 @@
       <c r="C152" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2018</v>
       </c>
@@ -3634,8 +4364,11 @@
       <c r="C153" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2018</v>
       </c>
@@ -3645,8 +4378,11 @@
       <c r="C154" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2018</v>
       </c>
@@ -3656,8 +4392,11 @@
       <c r="C155" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2019</v>
       </c>
@@ -3667,8 +4406,11 @@
       <c r="C156" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2019</v>
       </c>
@@ -3678,8 +4420,11 @@
       <c r="C157" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2019</v>
       </c>
@@ -3689,8 +4434,11 @@
       <c r="C158" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2019</v>
       </c>
@@ -3700,8 +4448,11 @@
       <c r="C159" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2019</v>
       </c>
@@ -3711,8 +4462,11 @@
       <c r="C160" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2019</v>
       </c>
@@ -3722,8 +4476,11 @@
       <c r="C161" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2019</v>
       </c>
@@ -3733,8 +4490,11 @@
       <c r="C162" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2020</v>
       </c>
@@ -3744,8 +4504,11 @@
       <c r="C163" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2020</v>
       </c>
@@ -3755,8 +4518,11 @@
       <c r="C164" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2020</v>
       </c>
@@ -3766,8 +4532,11 @@
       <c r="C165" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2020</v>
       </c>
@@ -3777,8 +4546,11 @@
       <c r="C166" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2020</v>
       </c>
@@ -3788,8 +4560,11 @@
       <c r="C167" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2020</v>
       </c>
@@ -3799,8 +4574,11 @@
       <c r="C168" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2020</v>
       </c>
@@ -3810,8 +4588,11 @@
       <c r="C169" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2021</v>
       </c>
@@ -3821,8 +4602,11 @@
       <c r="C170" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
@@ -3832,8 +4616,11 @@
       <c r="C171" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2021</v>
       </c>
@@ -3843,8 +4630,11 @@
       <c r="C172" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2021</v>
       </c>
@@ -3854,8 +4644,11 @@
       <c r="C173" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2021</v>
       </c>
@@ -3865,8 +4658,11 @@
       <c r="C174" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2021</v>
       </c>
@@ -3876,8 +4672,11 @@
       <c r="C175" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2021</v>
       </c>
@@ -3887,8 +4686,11 @@
       <c r="C176" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2017</v>
       </c>
@@ -3898,8 +4700,11 @@
       <c r="C177" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2017</v>
       </c>
@@ -3909,8 +4714,11 @@
       <c r="C178" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2017</v>
       </c>
@@ -3920,8 +4728,11 @@
       <c r="C179" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2017</v>
       </c>
@@ -3931,8 +4742,11 @@
       <c r="C180" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2017</v>
       </c>
@@ -3942,8 +4756,11 @@
       <c r="C181" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2017</v>
       </c>
@@ -3953,8 +4770,11 @@
       <c r="C182" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2017</v>
       </c>
@@ -3964,8 +4784,11 @@
       <c r="C183" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2017</v>
       </c>
@@ -3975,8 +4798,11 @@
       <c r="C184" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2017</v>
       </c>
@@ -3986,8 +4812,11 @@
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2017</v>
       </c>
@@ -3997,8 +4826,11 @@
       <c r="C186" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2017</v>
       </c>
@@ -4008,8 +4840,11 @@
       <c r="C187" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2017</v>
       </c>
@@ -4019,8 +4854,11 @@
       <c r="C188" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2017</v>
       </c>
@@ -4030,8 +4868,11 @@
       <c r="C189" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2017</v>
       </c>
@@ -4041,8 +4882,11 @@
       <c r="C190" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2017</v>
       </c>
@@ -4052,8 +4896,11 @@
       <c r="C191" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2017</v>
       </c>
@@ -4063,8 +4910,11 @@
       <c r="C192" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2017</v>
       </c>
@@ -4074,8 +4924,11 @@
       <c r="C193" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2017</v>
       </c>
@@ -4085,8 +4938,11 @@
       <c r="C194" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2017</v>
       </c>
@@ -4096,8 +4952,11 @@
       <c r="C195" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2017</v>
       </c>
@@ -4107,8 +4966,11 @@
       <c r="C196" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2018</v>
       </c>
@@ -4118,8 +4980,11 @@
       <c r="C197" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2018</v>
       </c>
@@ -4129,8 +4994,11 @@
       <c r="C198" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2018</v>
       </c>
@@ -4140,8 +5008,11 @@
       <c r="C199" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2018</v>
       </c>
@@ -4151,8 +5022,11 @@
       <c r="C200" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2018</v>
       </c>
@@ -4162,8 +5036,11 @@
       <c r="C201" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2018</v>
       </c>
@@ -4173,8 +5050,11 @@
       <c r="C202" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2018</v>
       </c>
@@ -4184,8 +5064,11 @@
       <c r="C203" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2018</v>
       </c>
@@ -4195,8 +5078,11 @@
       <c r="C204" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2018</v>
       </c>
@@ -4206,8 +5092,11 @@
       <c r="C205" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2018</v>
       </c>
@@ -4217,8 +5106,11 @@
       <c r="C206" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2018</v>
       </c>
@@ -4228,8 +5120,11 @@
       <c r="C207" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2018</v>
       </c>
@@ -4239,8 +5134,11 @@
       <c r="C208" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2018</v>
       </c>
@@ -4250,8 +5148,11 @@
       <c r="C209" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2018</v>
       </c>
@@ -4261,8 +5162,11 @@
       <c r="C210" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2018</v>
       </c>
@@ -4272,8 +5176,11 @@
       <c r="C211" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2018</v>
       </c>
@@ -4283,8 +5190,11 @@
       <c r="C212" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2018</v>
       </c>
@@ -4294,8 +5204,11 @@
       <c r="C213" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2018</v>
       </c>
@@ -4305,8 +5218,11 @@
       <c r="C214" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2018</v>
       </c>
@@ -4316,8 +5232,11 @@
       <c r="C215" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2018</v>
       </c>
@@ -4327,8 +5246,11 @@
       <c r="C216" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2018</v>
       </c>
@@ -4338,8 +5260,11 @@
       <c r="C217" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2018</v>
       </c>
@@ -4349,8 +5274,11 @@
       <c r="C218" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2018</v>
       </c>
@@ -4360,8 +5288,11 @@
       <c r="C219" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2019</v>
       </c>
@@ -4371,8 +5302,11 @@
       <c r="C220" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2019</v>
       </c>
@@ -4382,8 +5316,11 @@
       <c r="C221" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2019</v>
       </c>
@@ -4393,8 +5330,11 @@
       <c r="C222" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2019</v>
       </c>
@@ -4404,8 +5344,11 @@
       <c r="C223" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2019</v>
       </c>
@@ -4415,8 +5358,11 @@
       <c r="C224" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2019</v>
       </c>
@@ -4426,8 +5372,11 @@
       <c r="C225" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2019</v>
       </c>
@@ -4437,8 +5386,11 @@
       <c r="C226" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2019</v>
       </c>
@@ -4448,8 +5400,11 @@
       <c r="C227" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2019</v>
       </c>
@@ -4459,8 +5414,11 @@
       <c r="C228" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2019</v>
       </c>
@@ -4470,8 +5428,11 @@
       <c r="C229" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2019</v>
       </c>
@@ -4481,8 +5442,11 @@
       <c r="C230" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2019</v>
       </c>
@@ -4492,8 +5456,11 @@
       <c r="C231" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2019</v>
       </c>
@@ -4503,8 +5470,11 @@
       <c r="C232" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2019</v>
       </c>
@@ -4514,8 +5484,11 @@
       <c r="C233" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2019</v>
       </c>
@@ -4525,8 +5498,11 @@
       <c r="C234" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2019</v>
       </c>
@@ -4536,8 +5512,11 @@
       <c r="C235" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2019</v>
       </c>
@@ -4547,8 +5526,11 @@
       <c r="C236" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2019</v>
       </c>
@@ -4558,8 +5540,11 @@
       <c r="C237" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2019</v>
       </c>
@@ -4569,8 +5554,11 @@
       <c r="C238" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2019</v>
       </c>
@@ -4580,8 +5568,11 @@
       <c r="C239" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2019</v>
       </c>
@@ -4591,8 +5582,11 @@
       <c r="C240" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2019</v>
       </c>
@@ -4602,8 +5596,11 @@
       <c r="C241" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2019</v>
       </c>
@@ -4613,8 +5610,11 @@
       <c r="C242" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2020</v>
       </c>
@@ -4624,8 +5624,11 @@
       <c r="C243" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2020</v>
       </c>
@@ -4635,8 +5638,11 @@
       <c r="C244" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2020</v>
       </c>
@@ -4646,8 +5652,11 @@
       <c r="C245" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2020</v>
       </c>
@@ -4657,8 +5666,11 @@
       <c r="C246" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2020</v>
       </c>
@@ -4668,8 +5680,11 @@
       <c r="C247" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2020</v>
       </c>
@@ -4679,8 +5694,11 @@
       <c r="C248" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2020</v>
       </c>
@@ -4690,8 +5708,11 @@
       <c r="C249" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2020</v>
       </c>
@@ -4701,8 +5722,11 @@
       <c r="C250" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2020</v>
       </c>
@@ -4712,8 +5736,11 @@
       <c r="C251" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2020</v>
       </c>
@@ -4723,8 +5750,11 @@
       <c r="C252" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2020</v>
       </c>
@@ -4734,8 +5764,11 @@
       <c r="C253" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2020</v>
       </c>
@@ -4745,8 +5778,11 @@
       <c r="C254" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2020</v>
       </c>
@@ -4756,8 +5792,11 @@
       <c r="C255" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2020</v>
       </c>
@@ -4767,8 +5806,11 @@
       <c r="C256" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2020</v>
       </c>
@@ -4778,8 +5820,11 @@
       <c r="C257" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2020</v>
       </c>
@@ -4789,8 +5834,11 @@
       <c r="C258" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2020</v>
       </c>
@@ -4800,8 +5848,11 @@
       <c r="C259" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2020</v>
       </c>
@@ -4811,8 +5862,11 @@
       <c r="C260" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2020</v>
       </c>
@@ -4822,8 +5876,11 @@
       <c r="C261" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2020</v>
       </c>
@@ -4833,8 +5890,11 @@
       <c r="C262" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2020</v>
       </c>
@@ -4844,8 +5904,11 @@
       <c r="C263" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2020</v>
       </c>
@@ -4855,8 +5918,11 @@
       <c r="C264" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2020</v>
       </c>
@@ -4866,8 +5932,11 @@
       <c r="C265" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2021</v>
       </c>
@@ -4877,8 +5946,11 @@
       <c r="C266" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2021</v>
       </c>
@@ -4888,8 +5960,11 @@
       <c r="C267" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2021</v>
       </c>
@@ -4899,8 +5974,11 @@
       <c r="C268" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2021</v>
       </c>
@@ -4910,8 +5988,11 @@
       <c r="C269" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2021</v>
       </c>
@@ -4921,8 +6002,11 @@
       <c r="C270" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2021</v>
       </c>
@@ -4932,8 +6016,11 @@
       <c r="C271" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2021</v>
       </c>
@@ -4943,8 +6030,11 @@
       <c r="C272" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2021</v>
       </c>
@@ -4954,8 +6044,11 @@
       <c r="C273" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2021</v>
       </c>
@@ -4965,8 +6058,11 @@
       <c r="C274" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2021</v>
       </c>
@@ -4976,8 +6072,11 @@
       <c r="C275" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2021</v>
       </c>
@@ -4987,8 +6086,11 @@
       <c r="C276" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2021</v>
       </c>
@@ -4998,8 +6100,11 @@
       <c r="C277" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2021</v>
       </c>
@@ -5009,8 +6114,11 @@
       <c r="C278" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2021</v>
       </c>
@@ -5020,8 +6128,11 @@
       <c r="C279" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2021</v>
       </c>
@@ -5031,8 +6142,11 @@
       <c r="C280" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2021</v>
       </c>
@@ -5042,8 +6156,11 @@
       <c r="C281" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2021</v>
       </c>
@@ -5053,8 +6170,11 @@
       <c r="C282" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2021</v>
       </c>
@@ -5064,8 +6184,11 @@
       <c r="C283" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2021</v>
       </c>
@@ -5075,8 +6198,11 @@
       <c r="C284" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2021</v>
       </c>
@@ -5086,8 +6212,11 @@
       <c r="C285" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2021</v>
       </c>
@@ -5097,8 +6226,11 @@
       <c r="C286" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2021</v>
       </c>
@@ -5108,8 +6240,11 @@
       <c r="C287" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2021</v>
       </c>
@@ -5119,8 +6254,11 @@
       <c r="C288" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2021</v>
       </c>
@@ -5130,8 +6268,11 @@
       <c r="C289" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2017</v>
       </c>
@@ -5141,8 +6282,11 @@
       <c r="C290" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2017</v>
       </c>
@@ -5152,8 +6296,11 @@
       <c r="C291" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2017</v>
       </c>
@@ -5163,8 +6310,11 @@
       <c r="C292" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2017</v>
       </c>
@@ -5174,8 +6324,11 @@
       <c r="C293" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2017</v>
       </c>
@@ -5185,8 +6338,11 @@
       <c r="C294" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2017</v>
       </c>
@@ -5196,8 +6352,11 @@
       <c r="C295" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2017</v>
       </c>
@@ -5207,8 +6366,11 @@
       <c r="C296" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2017</v>
       </c>
@@ -5218,8 +6380,11 @@
       <c r="C297" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2017</v>
       </c>
@@ -5229,8 +6394,11 @@
       <c r="C298" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2017</v>
       </c>
@@ -5240,8 +6408,11 @@
       <c r="C299" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2017</v>
       </c>
@@ -5251,8 +6422,11 @@
       <c r="C300" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2017</v>
       </c>
@@ -5262,8 +6436,11 @@
       <c r="C301" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2017</v>
       </c>
@@ -5273,8 +6450,11 @@
       <c r="C302" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2017</v>
       </c>
@@ -5284,8 +6464,11 @@
       <c r="C303" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2017</v>
       </c>
@@ -5295,8 +6478,11 @@
       <c r="C304" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2017</v>
       </c>
@@ -5306,8 +6492,11 @@
       <c r="C305" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2017</v>
       </c>
@@ -5317,8 +6506,11 @@
       <c r="C306" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2017</v>
       </c>
@@ -5328,8 +6520,11 @@
       <c r="C307" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2017</v>
       </c>
@@ -5339,8 +6534,11 @@
       <c r="C308" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2017</v>
       </c>
@@ -5350,8 +6548,11 @@
       <c r="C309" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2017</v>
       </c>
@@ -5361,8 +6562,11 @@
       <c r="C310" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2017</v>
       </c>
@@ -5372,8 +6576,11 @@
       <c r="C311" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2017</v>
       </c>
@@ -5383,8 +6590,11 @@
       <c r="C312" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2018</v>
       </c>
@@ -5394,8 +6604,11 @@
       <c r="C313" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2018</v>
       </c>
@@ -5405,8 +6618,11 @@
       <c r="C314" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2018</v>
       </c>
@@ -5416,8 +6632,11 @@
       <c r="C315" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2018</v>
       </c>
@@ -5427,8 +6646,11 @@
       <c r="C316" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2018</v>
       </c>
@@ -5438,8 +6660,11 @@
       <c r="C317" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2018</v>
       </c>
@@ -5449,8 +6674,11 @@
       <c r="C318" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2018</v>
       </c>
@@ -5460,8 +6688,11 @@
       <c r="C319" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2018</v>
       </c>
@@ -5471,8 +6702,11 @@
       <c r="C320" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2018</v>
       </c>
@@ -5482,8 +6716,11 @@
       <c r="C321" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2018</v>
       </c>
@@ -5493,8 +6730,11 @@
       <c r="C322" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2018</v>
       </c>
@@ -5504,8 +6744,11 @@
       <c r="C323" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2018</v>
       </c>
@@ -5515,8 +6758,11 @@
       <c r="C324" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2018</v>
       </c>
@@ -5526,8 +6772,11 @@
       <c r="C325" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2018</v>
       </c>
@@ -5537,8 +6786,11 @@
       <c r="C326" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2018</v>
       </c>
@@ -5548,8 +6800,11 @@
       <c r="C327" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2018</v>
       </c>
@@ -5559,8 +6814,11 @@
       <c r="C328" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2018</v>
       </c>
@@ -5570,8 +6828,11 @@
       <c r="C329" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2018</v>
       </c>
@@ -5581,8 +6842,11 @@
       <c r="C330" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2018</v>
       </c>
@@ -5592,8 +6856,11 @@
       <c r="C331" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2018</v>
       </c>
@@ -5603,8 +6870,11 @@
       <c r="C332" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2018</v>
       </c>
@@ -5614,8 +6884,11 @@
       <c r="C333" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2018</v>
       </c>
@@ -5625,8 +6898,11 @@
       <c r="C334" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2018</v>
       </c>
@@ -5636,8 +6912,11 @@
       <c r="C335" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2018</v>
       </c>
@@ -5647,8 +6926,11 @@
       <c r="C336" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2019</v>
       </c>
@@ -5658,8 +6940,11 @@
       <c r="C337" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2019</v>
       </c>
@@ -5669,8 +6954,11 @@
       <c r="C338" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2019</v>
       </c>
@@ -5680,8 +6968,11 @@
       <c r="C339" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2019</v>
       </c>
@@ -5691,8 +6982,11 @@
       <c r="C340" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2019</v>
       </c>
@@ -5702,8 +6996,11 @@
       <c r="C341" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2019</v>
       </c>
@@ -5713,8 +7010,11 @@
       <c r="C342" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>2019</v>
       </c>
@@ -5724,8 +7024,11 @@
       <c r="C343" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2019</v>
       </c>
@@ -5735,8 +7038,11 @@
       <c r="C344" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2019</v>
       </c>
@@ -5746,8 +7052,11 @@
       <c r="C345" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2019</v>
       </c>
@@ -5757,8 +7066,11 @@
       <c r="C346" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2019</v>
       </c>
@@ -5768,8 +7080,11 @@
       <c r="C347" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2019</v>
       </c>
@@ -5779,8 +7094,11 @@
       <c r="C348" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2019</v>
       </c>
@@ -5790,8 +7108,11 @@
       <c r="C349" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2019</v>
       </c>
@@ -5801,8 +7122,11 @@
       <c r="C350" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2019</v>
       </c>
@@ -5812,8 +7136,11 @@
       <c r="C351" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2019</v>
       </c>
@@ -5823,8 +7150,11 @@
       <c r="C352" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2019</v>
       </c>
@@ -5834,8 +7164,11 @@
       <c r="C353" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2019</v>
       </c>
@@ -5845,8 +7178,11 @@
       <c r="C354" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2019</v>
       </c>
@@ -5856,8 +7192,11 @@
       <c r="C355" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2019</v>
       </c>
@@ -5867,8 +7206,11 @@
       <c r="C356" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2019</v>
       </c>
@@ -5878,8 +7220,11 @@
       <c r="C357" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2019</v>
       </c>
@@ -5889,8 +7234,11 @@
       <c r="C358" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2019</v>
       </c>
@@ -5900,8 +7248,11 @@
       <c r="C359" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2019</v>
       </c>
@@ -5911,8 +7262,11 @@
       <c r="C360" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2020</v>
       </c>
@@ -5922,8 +7276,11 @@
       <c r="C361" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2020</v>
       </c>
@@ -5933,8 +7290,11 @@
       <c r="C362" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>2020</v>
       </c>
@@ -5944,8 +7304,11 @@
       <c r="C363" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2020</v>
       </c>
@@ -5955,8 +7318,11 @@
       <c r="C364" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2020</v>
       </c>
@@ -5966,8 +7332,11 @@
       <c r="C365" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2020</v>
       </c>
@@ -5977,8 +7346,11 @@
       <c r="C366" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2020</v>
       </c>
@@ -5988,8 +7360,11 @@
       <c r="C367" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2020</v>
       </c>
@@ -5999,8 +7374,11 @@
       <c r="C368" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2020</v>
       </c>
@@ -6010,8 +7388,11 @@
       <c r="C369" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2020</v>
       </c>
@@ -6021,8 +7402,11 @@
       <c r="C370" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2020</v>
       </c>
@@ -6032,8 +7416,11 @@
       <c r="C371" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2020</v>
       </c>
@@ -6043,8 +7430,11 @@
       <c r="C372" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2020</v>
       </c>
@@ -6054,8 +7444,11 @@
       <c r="C373" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2020</v>
       </c>
@@ -6065,8 +7458,11 @@
       <c r="C374" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2020</v>
       </c>
@@ -6076,8 +7472,11 @@
       <c r="C375" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2020</v>
       </c>
@@ -6087,8 +7486,11 @@
       <c r="C376" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2020</v>
       </c>
@@ -6098,8 +7500,11 @@
       <c r="C377" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2020</v>
       </c>
@@ -6109,8 +7514,11 @@
       <c r="C378" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2020</v>
       </c>
@@ -6120,8 +7528,11 @@
       <c r="C379" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2020</v>
       </c>
@@ -6131,8 +7542,11 @@
       <c r="C380" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2020</v>
       </c>
@@ -6142,8 +7556,11 @@
       <c r="C381" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2020</v>
       </c>
@@ -6153,8 +7570,11 @@
       <c r="C382" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2020</v>
       </c>
@@ -6164,8 +7584,11 @@
       <c r="C383" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2020</v>
       </c>
@@ -6175,8 +7598,11 @@
       <c r="C384" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>2021</v>
       </c>
@@ -6186,8 +7612,11 @@
       <c r="C385" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>2021</v>
       </c>
@@ -6197,8 +7626,11 @@
       <c r="C386" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>2021</v>
       </c>
@@ -6208,8 +7640,11 @@
       <c r="C387" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>2021</v>
       </c>
@@ -6219,8 +7654,11 @@
       <c r="C388" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>2021</v>
       </c>
@@ -6230,8 +7668,11 @@
       <c r="C389" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2021</v>
       </c>
@@ -6241,8 +7682,11 @@
       <c r="C390" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>2021</v>
       </c>
@@ -6252,8 +7696,11 @@
       <c r="C391" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2021</v>
       </c>
@@ -6263,8 +7710,11 @@
       <c r="C392" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2021</v>
       </c>
@@ -6274,8 +7724,11 @@
       <c r="C393" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2021</v>
       </c>
@@ -6285,8 +7738,11 @@
       <c r="C394" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2021</v>
       </c>
@@ -6296,8 +7752,11 @@
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2021</v>
       </c>
@@ -6307,8 +7766,11 @@
       <c r="C396" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2021</v>
       </c>
@@ -6318,8 +7780,11 @@
       <c r="C397" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2021</v>
       </c>
@@ -6329,8 +7794,11 @@
       <c r="C398" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2021</v>
       </c>
@@ -6340,8 +7808,11 @@
       <c r="C399" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2021</v>
       </c>
@@ -6351,8 +7822,11 @@
       <c r="C400" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2021</v>
       </c>
@@ -6362,8 +7836,11 @@
       <c r="C401" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2021</v>
       </c>
@@ -6373,8 +7850,11 @@
       <c r="C402" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2021</v>
       </c>
@@ -6384,8 +7864,11 @@
       <c r="C403" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>2021</v>
       </c>
@@ -6395,8 +7878,11 @@
       <c r="C404" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>2021</v>
       </c>
@@ -6406,8 +7892,11 @@
       <c r="C405" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>2021</v>
       </c>
@@ -6417,8 +7906,11 @@
       <c r="C406" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2021</v>
       </c>
@@ -6428,8 +7920,11 @@
       <c r="C407" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>2021</v>
       </c>
@@ -6438,10 +7933,2381 @@
       </c>
       <c r="C408" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D408">
+        <v>5002704</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C408" xr:uid="{6600B88C-AC34-44DF-9CDD-44DCAEDCCB89}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA8732B-ADD0-4664-A76A-8E1D3E54A062}">
+  <dimension ref="A1:C105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(B2,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(B3,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(B4,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(B5,Cidades!B:C,2)</f>
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(B6,Cidades!B:C,2)</f>
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(B7,Cidades!B:C,2)</f>
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(B8,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(B9,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(B10,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(B11,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(B14,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(B15,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(B16,Cidades!B:C,2)</f>
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(B17,Cidades!B:C,2)</f>
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(B18,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(B19,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(B20,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(B21,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(B22,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(B23,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(B24,Cidades!B:C,2)</f>
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(B25,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(B26,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(B27,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(B28,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(B29,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(B30,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(B31,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(B32,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(B33,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(B34,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(B35,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(B36,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(B37,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(B38,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(B39,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(B40,Cidades!B:C,2)</f>
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(B41,Cidades!B:C,2)</f>
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(B42,Cidades!B:C,2)</f>
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(B43,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(B44,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(B45,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(B46,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" t="s">
+        <v>537</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(B47,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" t="s">
+        <v>537</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(B48,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>537</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(B49,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(B50,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(B51,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>549</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(B52,Cidades!B:C,2)</f>
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>549</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(B53,Cidades!B:C,2)</f>
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>549</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(B54,Cidades!B:C,2)</f>
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
+        <v>537</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(B55,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56" t="s">
+        <v>537</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(B56,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>537</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(B57,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s">
+        <v>537</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(B58,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s">
+        <v>537</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(B59,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(B60,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" t="s">
+        <v>537</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP(B61,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>537</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(B62,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" t="s">
+        <v>537</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(B63,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>537</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(B64,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>537</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(B65,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>537</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP(B66,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B67" t="s">
+        <v>537</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(B67,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>537</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(B68,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(B69,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" t="s">
+        <v>537</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(B70,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(B71,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(B72,Cidades!B:C,2)</f>
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>537</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(B73,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>537</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(B74,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(B75,Cidades!B:C,2)</f>
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>549</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(B76,Cidades!B:C,2)</f>
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>567</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP(B77,Cidades!B:C,2)</f>
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>570</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP(B78,Cidades!B:C,2)</f>
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>537</v>
+      </c>
+      <c r="C79">
+        <f>VLOOKUP(B79,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
+        <v>537</v>
+      </c>
+      <c r="C80">
+        <f>VLOOKUP(B80,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>595</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(B81,Cidades!B:C,2)</f>
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" t="s">
+        <v>537</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP(B82,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" t="s">
+        <v>537</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(B83,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>595</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(B84,Cidades!B:C,2)</f>
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>595</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(B85,Cidades!B:C,2)</f>
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>595</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(B86,Cidades!B:C,2)</f>
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
+        <v>537</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP(B87,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP(B88,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C89">
+        <f>VLOOKUP(B89,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" t="s">
+        <v>537</v>
+      </c>
+      <c r="C90">
+        <f>VLOOKUP(B90,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" t="s">
+        <v>537</v>
+      </c>
+      <c r="C91">
+        <f>VLOOKUP(B91,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92" t="s">
+        <v>537</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP(B92,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B93" t="s">
+        <v>537</v>
+      </c>
+      <c r="C93">
+        <f>VLOOKUP(B93,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B94" t="s">
+        <v>537</v>
+      </c>
+      <c r="C94">
+        <f>VLOOKUP(B94,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" t="s">
+        <v>537</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP(B95,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" t="s">
+        <v>537</v>
+      </c>
+      <c r="C96">
+        <f>VLOOKUP(B96,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B97" t="s">
+        <v>537</v>
+      </c>
+      <c r="C97">
+        <f>VLOOKUP(B97,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>537</v>
+      </c>
+      <c r="C98">
+        <f>VLOOKUP(B98,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C99">
+        <f>VLOOKUP(B99,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" t="s">
+        <v>537</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP(B100,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" t="s">
+        <v>537</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP(B101,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" t="s">
+        <v>537</v>
+      </c>
+      <c r="C102">
+        <f>VLOOKUP(B102,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B103" t="s">
+        <v>537</v>
+      </c>
+      <c r="C103">
+        <f>VLOOKUP(B103,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B104" t="s">
+        <v>537</v>
+      </c>
+      <c r="C104">
+        <f>VLOOKUP(B104,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B105" t="s">
+        <v>537</v>
+      </c>
+      <c r="C105">
+        <f>VLOOKUP(B105,Cidades!B:C,2)</f>
+        <v>5002704</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A105" xr:uid="{0FA8732B-ADD0-4664-A76A-8E1D3E54A062}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A408">
+    <sortCondition ref="A2:A408"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D708F8-57C7-4AFF-A9FE-06EA3F984DC0}">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="13.42578125" customWidth="1"/>
+    <col min="258" max="258" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="8" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="13.42578125" customWidth="1"/>
+    <col min="514" max="514" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="8" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="13.42578125" customWidth="1"/>
+    <col min="770" max="770" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="8" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="13.42578125" customWidth="1"/>
+    <col min="1026" max="1026" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="8" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="13.42578125" customWidth="1"/>
+    <col min="1282" max="1282" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="8" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="13.42578125" customWidth="1"/>
+    <col min="1538" max="1538" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="8" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="13.42578125" customWidth="1"/>
+    <col min="1794" max="1794" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="8" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="13.42578125" customWidth="1"/>
+    <col min="2050" max="2050" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="8" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="13.42578125" customWidth="1"/>
+    <col min="2306" max="2306" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="8" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="13.42578125" customWidth="1"/>
+    <col min="2562" max="2562" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="8" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="13.42578125" customWidth="1"/>
+    <col min="2818" max="2818" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="8" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="13.42578125" customWidth="1"/>
+    <col min="3074" max="3074" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="8" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="13.42578125" customWidth="1"/>
+    <col min="3330" max="3330" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="8" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="13.42578125" customWidth="1"/>
+    <col min="3586" max="3586" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="8" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="13.42578125" customWidth="1"/>
+    <col min="3842" max="3842" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="8" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="13.42578125" customWidth="1"/>
+    <col min="4098" max="4098" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="8" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="13.42578125" customWidth="1"/>
+    <col min="4354" max="4354" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="8" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="13.42578125" customWidth="1"/>
+    <col min="4610" max="4610" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="8" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="13.42578125" customWidth="1"/>
+    <col min="4866" max="4866" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="8" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="13.42578125" customWidth="1"/>
+    <col min="5122" max="5122" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="8" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="13.42578125" customWidth="1"/>
+    <col min="5378" max="5378" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="8" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="13.42578125" customWidth="1"/>
+    <col min="5634" max="5634" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="8" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="13.42578125" customWidth="1"/>
+    <col min="5890" max="5890" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="8" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="13.42578125" customWidth="1"/>
+    <col min="6146" max="6146" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="8" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="13.42578125" customWidth="1"/>
+    <col min="6402" max="6402" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="8" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="13.42578125" customWidth="1"/>
+    <col min="6658" max="6658" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="8" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="13.42578125" customWidth="1"/>
+    <col min="6914" max="6914" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="8" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="13.42578125" customWidth="1"/>
+    <col min="7170" max="7170" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="8" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="13.42578125" customWidth="1"/>
+    <col min="7426" max="7426" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="8" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="13.42578125" customWidth="1"/>
+    <col min="7682" max="7682" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="8" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="13.42578125" customWidth="1"/>
+    <col min="7938" max="7938" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="8" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="13.42578125" customWidth="1"/>
+    <col min="8194" max="8194" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="8" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="13.42578125" customWidth="1"/>
+    <col min="8450" max="8450" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="8" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="13.42578125" customWidth="1"/>
+    <col min="8706" max="8706" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="8" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="13.42578125" customWidth="1"/>
+    <col min="8962" max="8962" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="8" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="13.42578125" customWidth="1"/>
+    <col min="9218" max="9218" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="8" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="13.42578125" customWidth="1"/>
+    <col min="9474" max="9474" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="8" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="13.42578125" customWidth="1"/>
+    <col min="9730" max="9730" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="8" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="13.42578125" customWidth="1"/>
+    <col min="9986" max="9986" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="8" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="13.42578125" customWidth="1"/>
+    <col min="10242" max="10242" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="8" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="13.42578125" customWidth="1"/>
+    <col min="10498" max="10498" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="8" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="13.42578125" customWidth="1"/>
+    <col min="10754" max="10754" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="8" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="13.42578125" customWidth="1"/>
+    <col min="11010" max="11010" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="8" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="13.42578125" customWidth="1"/>
+    <col min="11266" max="11266" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="8" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="13.42578125" customWidth="1"/>
+    <col min="11522" max="11522" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="8" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="13.42578125" customWidth="1"/>
+    <col min="11778" max="11778" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="8" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="13.42578125" customWidth="1"/>
+    <col min="12034" max="12034" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="8" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="13.42578125" customWidth="1"/>
+    <col min="12290" max="12290" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="8" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="13.42578125" customWidth="1"/>
+    <col min="12546" max="12546" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="8" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="13.42578125" customWidth="1"/>
+    <col min="12802" max="12802" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="8" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="13.42578125" customWidth="1"/>
+    <col min="13058" max="13058" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="8" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="13.42578125" customWidth="1"/>
+    <col min="13314" max="13314" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="8" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="13.42578125" customWidth="1"/>
+    <col min="13570" max="13570" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="8" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="13.42578125" customWidth="1"/>
+    <col min="13826" max="13826" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="8" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="13.42578125" customWidth="1"/>
+    <col min="14082" max="14082" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="8" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="13.42578125" customWidth="1"/>
+    <col min="14338" max="14338" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="8" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="13.42578125" customWidth="1"/>
+    <col min="14594" max="14594" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="8" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="13.42578125" customWidth="1"/>
+    <col min="14850" max="14850" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="8" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="13.42578125" customWidth="1"/>
+    <col min="15106" max="15106" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="8" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="13.42578125" customWidth="1"/>
+    <col min="15362" max="15362" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="8" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="13.42578125" customWidth="1"/>
+    <col min="15618" max="15618" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="8" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="13.42578125" customWidth="1"/>
+    <col min="15874" max="15874" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="8" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="13.42578125" customWidth="1"/>
+    <col min="16130" max="16130" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2">
+        <v>5000203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3">
+        <v>5000252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4">
+        <v>5000609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5">
+        <v>5000708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6">
+        <v>5000807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7">
+        <v>5000856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8">
+        <v>5000906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9">
+        <v>5001003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10">
+        <v>5001102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11">
+        <v>5001243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12">
+        <v>5001508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13">
+        <v>5001904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14">
+        <v>5002001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C15">
+        <v>5002100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16">
+        <v>5002159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17">
+        <v>5002209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C18">
+        <v>5002308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19">
+        <v>5002407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20">
+        <v>5002605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21">
+        <v>5002704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C22">
+        <v>5002803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>517</v>
+      </c>
+      <c r="B23" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23">
+        <v>5002902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24">
+        <v>5002951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25">
+        <v>5003108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26">
+        <v>5003157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27">
+        <v>5003207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28">
+        <v>5003256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C29">
+        <v>5003306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30">
+        <v>5003454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>517</v>
+      </c>
+      <c r="B31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C31">
+        <v>5003488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>517</v>
+      </c>
+      <c r="B32" t="s">
+        <v>548</v>
+      </c>
+      <c r="C32">
+        <v>5003504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33">
+        <v>5003702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" t="s">
+        <v>550</v>
+      </c>
+      <c r="C34">
+        <v>5003751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>517</v>
+      </c>
+      <c r="B35" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35">
+        <v>5003801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+      <c r="C36">
+        <v>5003900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C37">
+        <v>5004007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" t="s">
+        <v>554</v>
+      </c>
+      <c r="C38">
+        <v>5004106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C39">
+        <v>5004304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>517</v>
+      </c>
+      <c r="B40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C40">
+        <v>5004403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" t="s">
+        <v>557</v>
+      </c>
+      <c r="C41">
+        <v>5004502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>517</v>
+      </c>
+      <c r="B42" t="s">
+        <v>558</v>
+      </c>
+      <c r="C42">
+        <v>5004601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43">
+        <v>5004700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C44">
+        <v>5004809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" t="s">
+        <v>561</v>
+      </c>
+      <c r="C45">
+        <v>5004908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B46" t="s">
+        <v>562</v>
+      </c>
+      <c r="C46">
+        <v>5005004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>517</v>
+      </c>
+      <c r="B47" t="s">
+        <v>563</v>
+      </c>
+      <c r="C47">
+        <v>5005103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>517</v>
+      </c>
+      <c r="B48" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48">
+        <v>5005152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>517</v>
+      </c>
+      <c r="B49" t="s">
+        <v>565</v>
+      </c>
+      <c r="C49">
+        <v>5005202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>517</v>
+      </c>
+      <c r="B50" t="s">
+        <v>566</v>
+      </c>
+      <c r="C50">
+        <v>5005251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>517</v>
+      </c>
+      <c r="B51" t="s">
+        <v>567</v>
+      </c>
+      <c r="C51">
+        <v>5005400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C52">
+        <v>5005608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>569</v>
+      </c>
+      <c r="C53">
+        <v>5005681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>517</v>
+      </c>
+      <c r="B54" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54">
+        <v>5005707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" t="s">
+        <v>571</v>
+      </c>
+      <c r="C55">
+        <v>5005806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>517</v>
+      </c>
+      <c r="B56" t="s">
+        <v>572</v>
+      </c>
+      <c r="C56">
+        <v>5006002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B57" t="s">
+        <v>573</v>
+      </c>
+      <c r="C57">
+        <v>5006200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" t="s">
+        <v>574</v>
+      </c>
+      <c r="C58">
+        <v>5006259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>517</v>
+      </c>
+      <c r="B59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C59">
+        <v>5006275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>517</v>
+      </c>
+      <c r="B60" t="s">
+        <v>576</v>
+      </c>
+      <c r="C60">
+        <v>5006309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>517</v>
+      </c>
+      <c r="B61" t="s">
+        <v>577</v>
+      </c>
+      <c r="C61">
+        <v>5006358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>517</v>
+      </c>
+      <c r="B62" t="s">
+        <v>578</v>
+      </c>
+      <c r="C62">
+        <v>5006408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63">
+        <v>5006606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>517</v>
+      </c>
+      <c r="B64" t="s">
+        <v>580</v>
+      </c>
+      <c r="C64">
+        <v>5006903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>517</v>
+      </c>
+      <c r="B65" t="s">
+        <v>581</v>
+      </c>
+      <c r="C65">
+        <v>5007109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>517</v>
+      </c>
+      <c r="B66" t="s">
+        <v>582</v>
+      </c>
+      <c r="C66">
+        <v>5007208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>517</v>
+      </c>
+      <c r="B67" t="s">
+        <v>583</v>
+      </c>
+      <c r="C67">
+        <v>5007307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>517</v>
+      </c>
+      <c r="B68" t="s">
+        <v>584</v>
+      </c>
+      <c r="C68">
+        <v>5007406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>517</v>
+      </c>
+      <c r="B69" t="s">
+        <v>585</v>
+      </c>
+      <c r="C69">
+        <v>5007505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>517</v>
+      </c>
+      <c r="B70" t="s">
+        <v>586</v>
+      </c>
+      <c r="C70">
+        <v>5007554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>517</v>
+      </c>
+      <c r="B71" t="s">
+        <v>587</v>
+      </c>
+      <c r="C71">
+        <v>5007695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>517</v>
+      </c>
+      <c r="B72" t="s">
+        <v>588</v>
+      </c>
+      <c r="C72">
+        <v>5007802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>517</v>
+      </c>
+      <c r="B73" t="s">
+        <v>589</v>
+      </c>
+      <c r="C73">
+        <v>5007703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>517</v>
+      </c>
+      <c r="B74" t="s">
+        <v>590</v>
+      </c>
+      <c r="C74">
+        <v>5007901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>517</v>
+      </c>
+      <c r="B75" t="s">
+        <v>591</v>
+      </c>
+      <c r="C75">
+        <v>5007935</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s">
+        <v>592</v>
+      </c>
+      <c r="C76">
+        <v>5007950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>517</v>
+      </c>
+      <c r="B77" t="s">
+        <v>593</v>
+      </c>
+      <c r="C77">
+        <v>5007976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>517</v>
+      </c>
+      <c r="B78" t="s">
+        <v>594</v>
+      </c>
+      <c r="C78">
+        <v>5008008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>517</v>
+      </c>
+      <c r="B79" t="s">
+        <v>595</v>
+      </c>
+      <c r="C79">
+        <v>5008305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>517</v>
+      </c>
+      <c r="B80" t="s">
+        <v>596</v>
+      </c>
+      <c r="C80">
+        <v>5008404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>